--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc101_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -882,10 +894,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -929,28 +941,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -975,28 +987,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1200,10 +1212,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1247,28 +1259,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1293,28 +1305,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1518,10 +1530,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1565,28 +1577,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1611,28 +1623,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1807,10 +1819,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1854,28 +1866,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1900,28 +1912,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2125,10 +2137,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2172,28 +2184,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2218,28 +2230,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2472,10 +2484,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2519,28 +2531,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2565,28 +2577,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2761,10 +2773,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2808,28 +2820,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2854,28 +2866,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3021,10 +3033,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3068,28 +3080,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3114,28 +3126,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3310,10 +3322,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3357,28 +3369,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3403,28 +3415,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3541,10 +3553,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3588,28 +3600,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3634,28 +3646,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3830,10 +3842,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3877,28 +3889,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3923,28 +3935,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4061,10 +4073,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4108,28 +4120,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4154,28 +4166,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4350,10 +4362,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4397,28 +4409,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4443,28 +4455,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4610,10 +4622,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4657,28 +4669,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4703,28 +4715,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4841,10 +4853,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4888,28 +4900,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4934,28 +4946,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5043,10 +5055,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5090,28 +5102,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5136,28 +5148,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5274,10 +5286,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5321,28 +5333,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5367,28 +5379,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5447,10 +5459,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5494,28 +5506,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5540,28 +5552,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5649,10 +5661,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5696,28 +5708,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5742,28 +5754,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5880,10 +5892,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5927,28 +5939,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5973,28 +5985,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6082,10 +6094,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6129,28 +6141,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6175,28 +6187,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6313,10 +6325,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6360,28 +6372,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6406,28 +6418,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6486,10 +6498,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6533,28 +6545,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6579,28 +6591,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6659,10 +6671,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
